--- a/measurements.xlsx
+++ b/measurements.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janderlatka/Documents/Cambridge/IB/LIDP/IntegratedDesignProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CF5E21-19F8-8E41-BA64-4F7B8AA65C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672132C0-0876-0E40-823C-E95F6F59CDE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16400" xr2:uid="{E487DEE3-91D3-2C46-A8D6-14ECE9F988FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,14 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>30 full rotations</t>
   </si>
   <si>
-    <t xml:space="preserve">5m flat </t>
-  </si>
-  <si>
     <t>start</t>
   </si>
   <si>
@@ -58,15 +55,22 @@
   </si>
   <si>
     <t>max - min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6m flat </t>
+  </si>
+  <si>
+    <t>speed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="167" formatCode="ss.000"/>
+    <numFmt numFmtId="165" formatCode="ss.000"/>
+    <numFmt numFmtId="166" formatCode="mm:ss.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -97,13 +101,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C8F790-86F6-F74B-95A0-B673E97EAF18}">
-  <dimension ref="B1:H28"/>
+  <dimension ref="B1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F12"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -432,242 +438,278 @@
     <col min="5" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+    <row r="1" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
       <c r="F1" t="s">
         <v>0</v>
       </c>
       <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="3">
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3" s="2">
         <v>4.5740740740740745E-5</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>2.0011574074074072E-4</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <f>C3-B3</f>
         <v>1.5437499999999997E-4</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="3">
+      <c r="H3" s="4">
+        <v>6.9722222222222223E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="2">
         <v>9.1782407407407394E-5</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>2.4442129629629629E-4</v>
       </c>
-      <c r="D4" s="3">
-        <f t="shared" ref="D4:D19" si="0">C4-B4</f>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:D13" si="0">C4-B4</f>
         <v>1.526388888888889E-4</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="3">
+      <c r="H4" s="4">
+        <v>6.9953703703703714E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
         <v>6.076388888888888E-5</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>2.1554398148148149E-4</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <f t="shared" si="0"/>
         <v>1.5478009259259262E-4</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="3">
+      <c r="H5" s="4">
+        <v>7.0312499999999987E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
         <v>6.2326388888888878E-5</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>2.168634259259259E-4</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <f t="shared" si="0"/>
         <v>1.5453703703703701E-4</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="3">
+      <c r="H6" s="4">
+        <v>6.9236111111111104E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="2">
         <v>1.3582175925925925E-4</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>2.9054398148148152E-4</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <f t="shared" si="0"/>
         <v>1.5472222222222227E-4</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="3">
+      <c r="H7" s="4">
+        <v>7.0092592592592602E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="2">
         <v>5.2106481481481481E-5</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>2.0761574074074074E-4</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <f t="shared" si="0"/>
         <v>1.5550925925925926E-4</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
         <v>6.6574074074074081E-5</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>2.2245370370370369E-4</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <f t="shared" si="0"/>
         <v>1.5587962962962962E-4</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="2">
         <v>3.3043981481481478E-5</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>1.8929398148148147E-4</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <f t="shared" si="0"/>
         <v>1.5625E-4</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="2">
         <v>3.3043981481481478E-5</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>1.8891203703703702E-4</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <f t="shared" si="0"/>
         <v>1.5586805555555555E-4</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="2">
         <v>3.2928240740740738E-5</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>1.8929398148148147E-4</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <f t="shared" si="0"/>
         <v>1.5636574074074074E-4</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="2">
         <v>5.1481481481481486E-5</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>2.0723379629629629E-4</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <f t="shared" si="0"/>
         <v>1.5575231481481481E-4</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2">
         <f>AVERAGE(D3:D13)</f>
         <v>1.5515256734006735E-4</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3">
+        <v>5</v>
+      </c>
+      <c r="H14" s="5">
+        <f>AVERAGE(H3:H7)</f>
+        <v>6.986342592592593E-4</v>
+      </c>
+      <c r="I14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2">
         <f>MAX(D3:D13)-MIN(D3:D13)</f>
         <v>3.7268518518518456E-6</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="2"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C28" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="H15" s="2">
+        <f>MAX(H3:H7)-MIN(H3:H7)</f>
+        <v>1.0763888888888824E-5</v>
+      </c>
+      <c r="I15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="G17">
+        <v>60.362000000000002</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21" s="1"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" s="1"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23" s="1"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24" s="1"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25" s="1"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C28" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
